--- a/Driblab_Argentina_2025_Fisico.xlsx
+++ b/Driblab_Argentina_2025_Fisico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25e966acac1e53b4/Documentos/River/2025/Proyectos/Driblab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25e966acac1e53b4/Documentos/River/2025/Proyectos/driblab-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75DBEBFC-4C8A-4ADA-9A52-0723C7C0AAB5}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CF03BB-48C3-4457-91BA-ED5B2F58475B}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3021,10 +3021,10 @@
   <dimension ref="A1:AB791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="N98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="N85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I801" sqref="I801"/>
+      <selection pane="bottomRight" activeCell="G797" sqref="G797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9724,7 +9724,7 @@
         <v>830</v>
       </c>
       <c r="C85" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="D85" t="s">
         <v>851</v>

--- a/Driblab_Argentina_2025_Fisico.xlsx
+++ b/Driblab_Argentina_2025_Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25e966acac1e53b4/Documentos/River/2025/Proyectos/driblab-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CF03BB-48C3-4457-91BA-ED5B2F58475B}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6A9678-824D-45CF-8061-C12508A88B88}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2729,6 +2729,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3021,10 +3025,10 @@
   <dimension ref="A1:AB791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="N85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G797" sqref="G797"/>
+      <selection pane="bottomRight" activeCell="C795" sqref="C795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6414,7 +6418,7 @@
         <v>812</v>
       </c>
       <c r="C44" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D44" t="s">
         <v>851</v>

--- a/Driblab_Argentina_2025_Fisico.xlsx
+++ b/Driblab_Argentina_2025_Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25e966acac1e53b4/Documentos/River/2025/Proyectos/driblab-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6A9678-824D-45CF-8061-C12508A88B88}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B599DD-DB98-4B09-8D9E-EA921F85F901}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2729,10 +2729,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3025,10 +3021,10 @@
   <dimension ref="A1:AB791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C795" sqref="C795"/>
+      <selection pane="bottomRight" activeCell="C792" sqref="C792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6418,7 +6414,7 @@
         <v>812</v>
       </c>
       <c r="C44" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D44" t="s">
         <v>851</v>
@@ -49980,7 +49976,7 @@
         <v>811</v>
       </c>
       <c r="C582" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D582" t="s">
         <v>851</v>

--- a/Driblab_Argentina_2025_Fisico.xlsx
+++ b/Driblab_Argentina_2025_Fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25e966acac1e53b4/Documentos/River/2025/Proyectos/driblab-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66B599DD-DB98-4B09-8D9E-EA921F85F901}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2B4BD3-64AA-442A-B725-924BD6EBFCA0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,10 +3021,10 @@
   <dimension ref="A1:AB791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C792" sqref="C792"/>
+      <selection pane="bottomRight" activeCell="M285" sqref="M285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25646,7 +25646,7 @@
         <v>816</v>
       </c>
       <c r="C279" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D279" t="s">
         <v>851</v>

--- a/Driblab_Argentina_2025_Fisico.xlsx
+++ b/Driblab_Argentina_2025_Fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25e966acac1e53b4/Documentos/River/2025/Proyectos/driblab-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD2B4BD3-64AA-442A-B725-924BD6EBFCA0}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{92BE6292-B67C-4514-B9A2-7F91ECD57852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBCCD678-4C2C-4D78-B897-D9EA9ADB8AB7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3021,10 +3021,10 @@
   <dimension ref="A1:AB791"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K317" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M285" sqref="M285"/>
+      <selection pane="bottomRight" activeCell="C796" sqref="C796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32448,7 +32448,7 @@
         <v>816</v>
       </c>
       <c r="C362" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="D362" t="s">
         <v>851</v>
